--- a/AdA/KO.xlsx
+++ b/AdA/KO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Riki/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Riki/Dropbox/cunef/CUNEF_22_23/AnalyticsAuditoria/S03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C772F59-EAFA-1949-AA69-7746F5C8716C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A34D942-0867-954E-92B4-7F943D8BB350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{FAC1E8BA-3BC8-3E49-B5CF-D2B96A486CA8}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="131">
   <si>
     <t>Revenues</t>
   </si>
@@ -35,57 +35,12 @@
     <t>Total Revenues</t>
   </si>
   <si>
-    <t>   % Change YoY</t>
-  </si>
-  <si>
-    <t>(5,3 %)</t>
-  </si>
-  <si>
-    <t>8,6 %</t>
-  </si>
-  <si>
-    <t>(11,4 %)</t>
-  </si>
-  <si>
-    <t>17,1 %</t>
-  </si>
-  <si>
     <t>Cost of Goods Sold</t>
   </si>
   <si>
     <t>Gross Profit</t>
   </si>
   <si>
-    <t>(5,6 %)</t>
-  </si>
-  <si>
-    <t>6,7 %</t>
-  </si>
-  <si>
-    <t>(13,5 %)</t>
-  </si>
-  <si>
-    <t>19,0 %</t>
-  </si>
-  <si>
-    <t>   % Gross Margins</t>
-  </si>
-  <si>
-    <t>62,1 %</t>
-  </si>
-  <si>
-    <t>61,9 %</t>
-  </si>
-  <si>
-    <t>60,8 %</t>
-  </si>
-  <si>
-    <t>59,3 %</t>
-  </si>
-  <si>
-    <t>60,3 %</t>
-  </si>
-  <si>
     <t>Selling General &amp; Admin Expenses</t>
   </si>
   <si>
@@ -95,36 +50,6 @@
     <t>Operating Income</t>
   </si>
   <si>
-    <t>9,2 %</t>
-  </si>
-  <si>
-    <t>4,1 %</t>
-  </si>
-  <si>
-    <t>(6,0 %)</t>
-  </si>
-  <si>
-    <t>13,3 %</t>
-  </si>
-  <si>
-    <t>   % Operating Margins</t>
-  </si>
-  <si>
-    <t>25,8 %</t>
-  </si>
-  <si>
-    <t>29,7 %</t>
-  </si>
-  <si>
-    <t>28,5 %</t>
-  </si>
-  <si>
-    <t>30,3 %</t>
-  </si>
-  <si>
-    <t>29,3 %</t>
-  </si>
-  <si>
     <t>Interest Expense</t>
   </si>
   <si>
@@ -185,144 +110,36 @@
     <t>Net Income to Common Incl Extra Items</t>
   </si>
   <si>
-    <t>   % Net Income to Common Incl Extra Items Margins</t>
-  </si>
-  <si>
-    <t>3,4 %</t>
-  </si>
-  <si>
-    <t>18,8 %</t>
-  </si>
-  <si>
-    <t>23,9 %</t>
-  </si>
-  <si>
-    <t>23,5 %</t>
-  </si>
-  <si>
-    <t>25,3 %</t>
-  </si>
-  <si>
     <t>Net Income to Common Excl. Extra Items</t>
   </si>
   <si>
-    <t>   % Net Income to Common Excl. Extra Items Margins</t>
-  </si>
-  <si>
     <t>Supplementary Data:</t>
   </si>
   <si>
     <t>Diluted EPS Excl Extra Items</t>
   </si>
   <si>
-    <t>417,2 %</t>
-  </si>
-  <si>
-    <t>38,0 %</t>
-  </si>
-  <si>
-    <t>25,7 %</t>
-  </si>
-  <si>
     <t>Weighted Average Diluted Shares Outstanding</t>
   </si>
   <si>
-    <t>(0,6 %)</t>
-  </si>
-  <si>
-    <t>0,3 %</t>
-  </si>
-  <si>
-    <t>0,2 %</t>
-  </si>
-  <si>
-    <t>0,4 %</t>
-  </si>
-  <si>
     <t>Weighted Average Basic Shares Outstanding</t>
   </si>
   <si>
-    <t>(0,3 %)</t>
-  </si>
-  <si>
-    <t>0,5 %</t>
-  </si>
-  <si>
     <t>Dividends Per Share</t>
   </si>
   <si>
-    <t>5,4 %</t>
-  </si>
-  <si>
-    <t>2,6 %</t>
-  </si>
-  <si>
-    <t>2,5 %</t>
-  </si>
-  <si>
-    <t>2,4 %</t>
-  </si>
-  <si>
-    <t>Payout Ratio %</t>
-  </si>
-  <si>
-    <t>506,4 %</t>
-  </si>
-  <si>
-    <t>103,3 %</t>
-  </si>
-  <si>
-    <t>76,7 %</t>
-  </si>
-  <si>
-    <t>91,0 %</t>
-  </si>
-  <si>
-    <t>74,2 %</t>
-  </si>
-  <si>
     <t>Basic EPS</t>
   </si>
   <si>
     <t>EBITDA</t>
   </si>
   <si>
-    <t>6,5 %</t>
-  </si>
-  <si>
-    <t>6,2 %</t>
-  </si>
-  <si>
-    <t>(3,9 %)</t>
-  </si>
-  <si>
-    <t>10,8 %</t>
-  </si>
-  <si>
     <t>EBITDAR</t>
   </si>
   <si>
     <t>Selling and Marketing Expense</t>
   </si>
   <si>
-    <t>Effective Tax Rate %</t>
-  </si>
-  <si>
-    <t>81,4 %</t>
-  </si>
-  <si>
-    <t>21,3 %</t>
-  </si>
-  <si>
-    <t>16,7 %</t>
-  </si>
-  <si>
-    <t>20,3 %</t>
-  </si>
-  <si>
-    <t>21,1 %</t>
-  </si>
-  <si>
     <t>Cash And Equivalents</t>
   </si>
   <si>
@@ -570,36 +387,6 @@
   </si>
   <si>
     <t>Free Cash Flow</t>
-  </si>
-  <si>
-    <t>14,9 %</t>
-  </si>
-  <si>
-    <t>38,5 %</t>
-  </si>
-  <si>
-    <t>3,0 %</t>
-  </si>
-  <si>
-    <t>29,9 %</t>
-  </si>
-  <si>
-    <t>   % Free Cash Flow Margins</t>
-  </si>
-  <si>
-    <t>14,6 %</t>
-  </si>
-  <si>
-    <t>17,7 %</t>
-  </si>
-  <si>
-    <t>22,6 %</t>
-  </si>
-  <si>
-    <t>26,3 %</t>
-  </si>
-  <si>
-    <t>29,1 %</t>
   </si>
   <si>
     <t>Cash and Cash Equivalents, Beginning of Period</t>
@@ -639,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -677,20 +464,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FFF44336"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFF44336"/>
       <name val="Roboto"/>
@@ -719,14 +492,6 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -745,33 +510,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1084,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD39AF6D-BA31-D147-BF99-B5567339636D}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,1023 +858,749 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>201</v>
+      <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>36212</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>34300</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>37266</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>33014</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>38655</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>36212</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>34300</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>37266</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>33014</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>38655</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="6">
+        <v>-13721</v>
+      </c>
+      <c r="C4" s="6">
+        <v>-13067</v>
+      </c>
+      <c r="D4" s="6">
+        <v>-14619</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-13433</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-15357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="B5" s="4">
+        <v>22491</v>
+      </c>
+      <c r="C5" s="4">
+        <v>21233</v>
+      </c>
+      <c r="D5" s="4">
+        <v>22647</v>
+      </c>
+      <c r="E5" s="4">
+        <v>19581</v>
+      </c>
+      <c r="F5" s="4">
+        <v>23298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="B6" s="6">
+        <v>-12901</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-11013</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-12011</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-9579</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-11984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="B7" s="7">
+        <v>-250</v>
+      </c>
+      <c r="C7" s="7">
+        <v>-17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>-11</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-12</v>
+      </c>
+      <c r="F7" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-13151</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-11030</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-12022</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-9591</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-11977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9">
-        <v>-13721</v>
-      </c>
-      <c r="C5" s="9">
-        <v>-13067</v>
-      </c>
-      <c r="D5" s="9">
-        <v>-14619</v>
-      </c>
-      <c r="E5" s="9">
-        <v>-13433</v>
-      </c>
-      <c r="F5" s="9">
-        <v>-15357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>22491</v>
-      </c>
-      <c r="C6" s="5">
-        <v>21233</v>
-      </c>
-      <c r="D6" s="5">
-        <v>22647</v>
-      </c>
-      <c r="E6" s="5">
-        <v>19581</v>
-      </c>
-      <c r="F6" s="5">
-        <v>23298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-12901</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-11013</v>
-      </c>
-      <c r="D9" s="9">
-        <v>-12011</v>
-      </c>
-      <c r="E9" s="9">
-        <v>-9579</v>
-      </c>
-      <c r="F9" s="9">
-        <v>-11984</v>
+      <c r="B9" s="4">
+        <v>9340</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10203</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10625</v>
+      </c>
+      <c r="E9" s="4">
+        <v>9990</v>
+      </c>
+      <c r="F9" s="4">
+        <v>11321</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10">
-        <v>-250</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-17</v>
-      </c>
-      <c r="D10" s="10">
-        <v>-11</v>
-      </c>
-      <c r="E10" s="10">
-        <v>-12</v>
-      </c>
-      <c r="F10" s="11">
         <v>7</v>
       </c>
+      <c r="B10" s="7">
+        <v>-853</v>
+      </c>
+      <c r="C10" s="7">
+        <v>-950</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-946</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-1437</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-1597</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="12">
-        <v>-13151</v>
-      </c>
-      <c r="C11" s="12">
-        <v>-11030</v>
-      </c>
-      <c r="D11" s="12">
-        <v>-12022</v>
-      </c>
-      <c r="E11" s="12">
-        <v>-9591</v>
-      </c>
-      <c r="F11" s="12">
-        <v>-11977</v>
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>750</v>
+      </c>
+      <c r="C11" s="8">
+        <v>689</v>
+      </c>
+      <c r="D11" s="8">
+        <v>563</v>
+      </c>
+      <c r="E11" s="8">
+        <v>442</v>
+      </c>
+      <c r="F11" s="8">
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="5">
-        <v>9340</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10203</v>
-      </c>
-      <c r="D12" s="5">
-        <v>10625</v>
-      </c>
-      <c r="E12" s="5">
-        <v>9990</v>
-      </c>
-      <c r="F12" s="5">
-        <v>11321</v>
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1072</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1008</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1049</v>
+      </c>
+      <c r="E12" s="8">
+        <v>978</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1438</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>25</v>
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7">
+        <v>-56</v>
+      </c>
+      <c r="C13" s="7">
+        <v>-5</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7">
+        <v>-64</v>
+      </c>
+      <c r="F13" s="7">
+        <v>-61</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>31</v>
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8">
+        <v>308</v>
+      </c>
+      <c r="C14" s="7">
+        <v>-481</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-27</v>
+      </c>
+      <c r="E14" s="7">
+        <v>-40</v>
+      </c>
+      <c r="F14" s="8">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="10">
-        <v>-853</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-950</v>
-      </c>
-      <c r="D15" s="10">
-        <v>-946</v>
-      </c>
-      <c r="E15" s="9">
-        <v>-1437</v>
-      </c>
-      <c r="F15" s="9">
-        <v>-1597</v>
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10561</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10464</v>
+      </c>
+      <c r="D15" s="4">
+        <v>11264</v>
+      </c>
+      <c r="E15" s="4">
+        <v>9869</v>
+      </c>
+      <c r="F15" s="4">
+        <v>11552</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="11">
-        <v>750</v>
-      </c>
-      <c r="C16" s="11">
-        <v>689</v>
-      </c>
-      <c r="D16" s="11">
-        <v>563</v>
-      </c>
-      <c r="E16" s="11">
-        <v>442</v>
-      </c>
-      <c r="F16" s="11">
-        <v>349</v>
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-534</v>
+      </c>
+      <c r="C16" s="7">
+        <v>-508</v>
+      </c>
+      <c r="D16" s="7">
+        <v>-310</v>
+      </c>
+      <c r="E16" s="7">
+        <v>-760</v>
+      </c>
+      <c r="F16" s="7">
+        <v>-767</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1072</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1008</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1049</v>
-      </c>
-      <c r="E17" s="11">
-        <v>978</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1438</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7">
+        <v>-14</v>
+      </c>
+      <c r="F17" s="7">
+        <v>-7</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="10">
-        <v>-56</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-5</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10">
-        <v>-64</v>
-      </c>
-      <c r="F18" s="10">
-        <v>-61</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>213</v>
+      </c>
+      <c r="C18" s="7">
+        <v>-605</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-478</v>
+      </c>
+      <c r="E18" s="8">
+        <v>769</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2110</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="11">
-        <v>308</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-481</v>
-      </c>
-      <c r="D19" s="10">
-        <v>-27</v>
-      </c>
-      <c r="E19" s="10">
-        <v>-40</v>
-      </c>
-      <c r="F19" s="11">
-        <v>102</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>-2052</v>
+      </c>
+      <c r="C19" s="7">
+        <v>-462</v>
+      </c>
+      <c r="D19" s="8">
+        <v>829</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5">
-        <v>10561</v>
-      </c>
-      <c r="C20" s="5">
-        <v>10464</v>
-      </c>
-      <c r="D20" s="5">
-        <v>11264</v>
-      </c>
-      <c r="E20" s="5">
-        <v>9869</v>
-      </c>
-      <c r="F20" s="5">
-        <v>11552</v>
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7">
+        <v>-771</v>
+      </c>
+      <c r="C20" s="7">
+        <v>-450</v>
+      </c>
+      <c r="D20" s="7">
+        <v>-202</v>
+      </c>
+      <c r="E20" s="7">
+        <v>-55</v>
+      </c>
+      <c r="F20" s="7">
+        <v>-78</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="10">
-        <v>-534</v>
-      </c>
-      <c r="C21" s="10">
-        <v>-508</v>
-      </c>
-      <c r="D21" s="10">
-        <v>-310</v>
-      </c>
-      <c r="E21" s="10">
-        <v>-760</v>
-      </c>
-      <c r="F21" s="10">
-        <v>-767</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="7">
+        <v>-67</v>
+      </c>
+      <c r="C21" s="7">
+        <v>-33</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7">
+        <v>-15</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10">
-        <v>-14</v>
-      </c>
-      <c r="F22" s="10">
-        <v>-7</v>
+        <v>19</v>
+      </c>
+      <c r="B22" s="7">
+        <v>-460</v>
+      </c>
+      <c r="C22" s="7">
+        <v>-181</v>
+      </c>
+      <c r="D22" s="7">
+        <v>-317</v>
+      </c>
+      <c r="E22" s="7">
+        <v>-60</v>
+      </c>
+      <c r="F22" s="7">
+        <v>-370</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="11">
-        <v>213</v>
-      </c>
-      <c r="C23" s="10">
-        <v>-605</v>
-      </c>
-      <c r="D23" s="10">
-        <v>-478</v>
-      </c>
-      <c r="E23" s="11">
-        <v>769</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2110</v>
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6890</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8225</v>
+      </c>
+      <c r="D23" s="4">
+        <v>10786</v>
+      </c>
+      <c r="E23" s="4">
+        <v>9749</v>
+      </c>
+      <c r="F23" s="4">
+        <v>12425</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="9">
-        <v>-2052</v>
-      </c>
-      <c r="C24" s="10">
-        <v>-462</v>
-      </c>
-      <c r="D24" s="11">
-        <v>829</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>-5607</v>
+      </c>
+      <c r="C24" s="6">
+        <v>-1749</v>
+      </c>
+      <c r="D24" s="6">
+        <v>-1801</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-1981</v>
+      </c>
+      <c r="F24" s="6">
+        <v>-2621</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="10">
-        <v>-771</v>
-      </c>
-      <c r="C25" s="10">
-        <v>-450</v>
-      </c>
-      <c r="D25" s="10">
-        <v>-202</v>
-      </c>
-      <c r="E25" s="10">
-        <v>-55</v>
-      </c>
-      <c r="F25" s="10">
-        <v>-78</v>
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1283</v>
+      </c>
+      <c r="C25" s="4">
+        <v>6476</v>
+      </c>
+      <c r="D25" s="4">
+        <v>8985</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7768</v>
+      </c>
+      <c r="F25" s="4">
+        <v>9804</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10">
-        <v>-67</v>
-      </c>
-      <c r="C26" s="10">
-        <v>-33</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10">
-        <v>-15</v>
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1283</v>
+      </c>
+      <c r="C26" s="4">
+        <v>6476</v>
+      </c>
+      <c r="D26" s="4">
+        <v>8985</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7768</v>
+      </c>
+      <c r="F26" s="4">
+        <v>9804</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="10">
-        <v>-460</v>
-      </c>
-      <c r="C27" s="10">
-        <v>-181</v>
-      </c>
-      <c r="D27" s="10">
-        <v>-317</v>
-      </c>
-      <c r="E27" s="10">
-        <v>-60</v>
-      </c>
-      <c r="F27" s="10">
-        <v>-370</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="7">
+        <v>-35</v>
+      </c>
+      <c r="C27" s="7">
+        <v>-42</v>
+      </c>
+      <c r="D27" s="7">
+        <v>-65</v>
+      </c>
+      <c r="E27" s="7">
+        <v>-21</v>
+      </c>
+      <c r="F27" s="7">
+        <v>-33</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="5">
-        <v>6890</v>
-      </c>
-      <c r="C28" s="5">
-        <v>8225</v>
-      </c>
-      <c r="D28" s="5">
-        <v>10786</v>
-      </c>
-      <c r="E28" s="5">
-        <v>9749</v>
-      </c>
-      <c r="F28" s="5">
-        <v>12425</v>
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1248</v>
+      </c>
+      <c r="C28" s="4">
+        <v>6434</v>
+      </c>
+      <c r="D28" s="4">
+        <v>8920</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7747</v>
+      </c>
+      <c r="F28" s="4">
+        <v>9771</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="9">
-        <v>-5607</v>
-      </c>
-      <c r="C29" s="9">
-        <v>-1749</v>
-      </c>
-      <c r="D29" s="9">
-        <v>-1801</v>
-      </c>
-      <c r="E29" s="9">
-        <v>-1981</v>
-      </c>
-      <c r="F29" s="9">
-        <v>-2621</v>
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1248</v>
+      </c>
+      <c r="C29" s="4">
+        <v>6434</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8920</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7747</v>
+      </c>
+      <c r="F29" s="4">
+        <v>9771</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1283</v>
-      </c>
-      <c r="C30" s="5">
-        <v>6476</v>
-      </c>
-      <c r="D30" s="5">
-        <v>8985</v>
-      </c>
-      <c r="E30" s="5">
-        <v>7768</v>
-      </c>
-      <c r="F30" s="5">
-        <v>9804</v>
+      <c r="A30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1248</v>
+      </c>
+      <c r="C30" s="4">
+        <v>6434</v>
+      </c>
+      <c r="D30" s="4">
+        <v>8920</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7747</v>
+      </c>
+      <c r="F30" s="4">
+        <v>9771</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1283</v>
-      </c>
-      <c r="C31" s="5">
-        <v>6476</v>
-      </c>
-      <c r="D31" s="5">
-        <v>8985</v>
-      </c>
-      <c r="E31" s="5">
-        <v>7768</v>
-      </c>
-      <c r="F31" s="5">
-        <v>9804</v>
+      <c r="A31" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="10">
-        <v>-35</v>
-      </c>
-      <c r="C32" s="10">
-        <v>-42</v>
-      </c>
-      <c r="D32" s="10">
-        <v>-65</v>
-      </c>
-      <c r="E32" s="10">
-        <v>-21</v>
-      </c>
-      <c r="F32" s="10">
-        <v>-33</v>
+        <v>29</v>
+      </c>
+      <c r="B32" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.79</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2.25</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1248</v>
-      </c>
-      <c r="C33" s="5">
-        <v>6434</v>
-      </c>
-      <c r="D33" s="5">
-        <v>8920</v>
-      </c>
-      <c r="E33" s="5">
-        <v>7747</v>
-      </c>
-      <c r="F33" s="5">
-        <v>9771</v>
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4324</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4299</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4314</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4323</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4340</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1248</v>
-      </c>
-      <c r="C34" s="5">
-        <v>6434</v>
-      </c>
-      <c r="D34" s="5">
-        <v>8920</v>
-      </c>
-      <c r="E34" s="5">
-        <v>7747</v>
-      </c>
-      <c r="F34" s="5">
-        <v>9771</v>
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4272</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4259</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4276</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4295</v>
+      </c>
+      <c r="F34" s="2">
+        <v>4315</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>57</v>
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1.68</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1248</v>
-      </c>
-      <c r="C36" s="5">
-        <v>6434</v>
-      </c>
-      <c r="D36" s="5">
-        <v>8920</v>
-      </c>
-      <c r="E36" s="5">
-        <v>7747</v>
-      </c>
-      <c r="F36" s="5">
-        <v>9771</v>
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1.51</v>
+      </c>
+      <c r="D36" s="8">
+        <v>2.09</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>57</v>
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10600</v>
+      </c>
+      <c r="C37" s="2">
+        <v>11289</v>
+      </c>
+      <c r="D37" s="2">
+        <v>11990</v>
+      </c>
+      <c r="E37" s="2">
+        <v>11526</v>
+      </c>
+      <c r="F37" s="2">
+        <v>12773</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>60</v>
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="2">
+        <v>11879</v>
+      </c>
+      <c r="F38" s="2">
+        <v>13115</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C39" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="D39" s="11">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1.79</v>
-      </c>
-      <c r="F39" s="11">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="3">
-        <v>4324</v>
-      </c>
-      <c r="C41" s="3">
-        <v>4299</v>
-      </c>
-      <c r="D41" s="3">
-        <v>4314</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4323</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="3">
-        <v>4272</v>
-      </c>
-      <c r="C43" s="3">
-        <v>4259</v>
-      </c>
-      <c r="D43" s="3">
-        <v>4276</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4295</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="11">
-        <v>1.48</v>
-      </c>
-      <c r="C45" s="11">
-        <v>1.56</v>
-      </c>
-      <c r="D45" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="E45" s="11">
-        <v>1.64</v>
-      </c>
-      <c r="F45" s="11">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C48" s="11">
-        <v>1.51</v>
-      </c>
-      <c r="D48" s="11">
-        <v>2.09</v>
-      </c>
-      <c r="E48" s="11">
-        <v>1.8</v>
-      </c>
-      <c r="F48" s="11">
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="3">
-        <v>10600</v>
-      </c>
-      <c r="C49" s="3">
-        <v>11289</v>
-      </c>
-      <c r="D49" s="3">
-        <v>11990</v>
-      </c>
-      <c r="E49" s="3">
-        <v>11526</v>
-      </c>
-      <c r="F49" s="3">
-        <v>12773</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="3">
-        <v>11879</v>
-      </c>
-      <c r="F51" s="3">
-        <v>13115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
         <v>3958</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C39" s="2">
         <v>4000</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D39" s="2">
         <v>4000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E39" s="2">
         <v>2777</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F39" s="2">
         <v>4098</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{4C24BED6-3D5A-5845-9E9C-81F3FD4E8556}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{193C2B39-A910-D24D-9391-43C5AB08C08A}"/>
-    <hyperlink ref="B13" r:id="rId3" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{AE9DBCB8-6682-314B-B1BA-17DCD3C7201C}"/>
-    <hyperlink ref="B40" r:id="rId4" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{D64DCBE6-A6E9-544B-B592-FB3816BCF60C}"/>
-    <hyperlink ref="B42" r:id="rId5" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{9E627BAC-07D9-3C49-9433-6911161F739F}"/>
-    <hyperlink ref="B44" r:id="rId6" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{4E3757F7-B1E9-F243-B670-A7E0D6A01F73}"/>
-    <hyperlink ref="B46" r:id="rId7" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{F8EDC76F-B42C-A340-8583-AB112A04C576}"/>
-    <hyperlink ref="B50" r:id="rId8" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{C744159F-C0AA-704D-A646-8A04616D75A0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2125,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A29A00-4945-3547-BDBF-C9A08EF3B23E}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A33" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2136,991 +1621,991 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>201</v>
+      <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="3">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
         <v>6006</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>9077</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>6480</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>6795</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>9684</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="3">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
         <v>14669</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>7038</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>4695</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>4119</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>2941</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="4">
         <v>20675</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>16115</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>11185</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>10914</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>12626</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="3">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2">
         <v>3667</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>3685</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>3971</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>3144</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3512</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="4">
         <v>3667</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>3685</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>3971</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>3144</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>3512</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="3">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
         <v>2655</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3071</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3379</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>3266</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>3414</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="3">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
         <v>1902</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1946</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1819</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1764</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1975</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="3">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2">
         <v>7646</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>113</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="8">
         <v>57</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>152</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1018</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="5">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4">
         <v>36545</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>24930</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>20411</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>19240</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>22545</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="3">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
         <v>16449</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>17611</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>20293</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>21248</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>20280</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="9">
+        <v>49</v>
+      </c>
+      <c r="B14" s="6">
         <v>-8246</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>-8013</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>-8083</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>-8923</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>-8942</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4">
         <v>8203</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>9598</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>12210</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>12325</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>11338</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B16" s="3">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2">
         <v>23281</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>21538</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>21730</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>22311</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>20540</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="3">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2">
         <v>9401</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>14109</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>16764</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>17506</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>19363</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="3">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
         <v>7235</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>7478</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>10002</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>11044</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>15250</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="11">
+        <v>54</v>
+      </c>
+      <c r="B19" s="8">
         <v>330</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>2674</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2412</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>2460</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>2129</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="3">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
         <v>2901</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>2889</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>2852</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>2410</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>3189</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="4">
         <v>87896</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>83216</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>86381</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>87296</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>94354</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="3">
+        <v>57</v>
+      </c>
+      <c r="B22" s="2">
         <v>2288</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>2719</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>3804</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>3517</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>4602</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B23" s="3">
+        <v>58</v>
+      </c>
+      <c r="B23" s="2">
         <v>6380</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>6627</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>6005</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>6079</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>8534</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="3">
+        <v>59</v>
+      </c>
+      <c r="B24" s="2">
         <v>13205</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>13835</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>10994</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>2183</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>3307</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="3">
+        <v>60</v>
+      </c>
+      <c r="B25" s="2">
         <v>3298</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>5003</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>4253</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>490</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>1338</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11">
+        <v>61</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
         <v>281</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>322</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="11">
+        <v>62</v>
+      </c>
+      <c r="B27" s="8">
         <v>410</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>411</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>414</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>788</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <v>686</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="3">
+        <v>64</v>
+      </c>
+      <c r="B29" s="2">
         <v>1613</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>187</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>1222</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>1222</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>1173</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4">
         <v>27194</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>28782</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>26973</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>14601</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>19950</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="3">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2">
         <v>31221</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>25416</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>27537</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>40125</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>38130</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="3">
+        <v>67</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2">
         <v>1111</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>1161</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="3">
+        <v>68</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="2">
         <v>1738</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>2164</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>1409</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="3">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2">
         <v>2522</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>2354</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>2284</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>1833</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>2821</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="3">
+        <v>70</v>
+      </c>
+      <c r="B35" s="2">
         <v>7982</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>5868</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>5378</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>5989</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>6023</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="A36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="4">
         <v>68919</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>64158</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>65283</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <v>66012</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>69494</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="3">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2">
         <v>1760</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1760</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>1760</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1760</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>1760</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="3">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2">
         <v>15864</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>16520</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>17154</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>17601</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>18116</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="3">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2">
         <v>60430</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>63234</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>65855</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>66555</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>69094</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="9">
+        <v>75</v>
+      </c>
+      <c r="B40" s="6">
         <v>-50677</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6">
         <v>-51719</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="6">
         <v>-52244</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="6">
         <v>-52016</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="6">
         <v>-51641</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="9">
+        <v>76</v>
+      </c>
+      <c r="B41" s="6">
         <v>-10305</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <v>-12814</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="6">
         <v>-13544</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="6">
         <v>-14601</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="6">
         <v>-14330</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B42" s="5">
+      <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="4">
         <v>17072</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>16981</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>18981</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <v>19299</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <v>22999</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="3">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2">
         <v>1905</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>2077</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>2117</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>1985</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>1861</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44" s="5">
+      <c r="A44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="4">
         <v>18977</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>19058</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>21098</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <v>21284</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>24860</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="4">
         <v>87896</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>83216</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>86381</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <v>87296</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="4">
         <v>94354</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>60</v>
+      <c r="A46" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="3">
+        <v>80</v>
+      </c>
+      <c r="B47" s="2">
         <v>4265.91</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>4275.34</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>4290.28</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>4309.3100000000004</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>4335.47</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="11">
+        <v>81</v>
+      </c>
+      <c r="B48" s="8">
         <v>4.01</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="8">
         <v>3.98</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="8">
         <v>4.43</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="8">
         <v>4.49</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="8">
         <v>5.32</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" s="11">
+        <v>82</v>
+      </c>
+      <c r="B49" s="8">
         <v>436</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="6">
         <v>-4606</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="6">
         <v>-7785</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="6">
         <v>-9251</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="6">
         <v>-11614</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="11">
+        <v>83</v>
+      </c>
+      <c r="B50" s="8">
         <v>0.1</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="7">
         <v>-1.08</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="7">
         <v>-1.82</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="7">
         <v>-2.15</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="7">
         <v>-2.69</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B51" s="3">
+        <v>84</v>
+      </c>
+      <c r="B51" s="2">
         <v>47724</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>44254</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>44176</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>44420</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>44246</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="3">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2">
         <v>27049</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>28139</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>32991</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>33506</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>31620</v>
       </c>
     </row>
@@ -3132,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1302D9D3-6FBD-D140-A3BF-0C4AD9413C67}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3144,860 +2629,819 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>201</v>
+      <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4">
         <v>1248</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>6434</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>8920</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>7747</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>9771</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="3">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2">
         <v>1192</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1037</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1245</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>1333</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="11">
+        <v>87</v>
+      </c>
+      <c r="B4" s="8">
         <v>68</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>49</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>120</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>203</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4">
         <v>1260</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1086</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1365</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1536</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>1452</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="3">
+        <v>89</v>
+      </c>
+      <c r="B6" s="2">
         <v>1459</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>743</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>-467</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>-914</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>-1365</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="11">
+        <v>90</v>
+      </c>
+      <c r="B7" s="8">
         <v>771</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>450</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>239</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="10">
+        <v>91</v>
+      </c>
+      <c r="B8" s="7">
         <v>-628</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>-457</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>-421</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>-511</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>-615</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="11">
+        <v>92</v>
+      </c>
+      <c r="B9" s="8">
         <v>219</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>225</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>201</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>126</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="10">
+        <v>93</v>
+      </c>
+      <c r="B10" s="7">
         <v>-730</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>386</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>507</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>931</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1635</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="10">
+        <v>94</v>
+      </c>
+      <c r="B11" s="7">
         <v>-108</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>27</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>-158</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>882</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="7">
         <v>-225</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="10">
+        <v>95</v>
+      </c>
+      <c r="B12" s="7">
         <v>-276</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="7">
         <v>-203</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>-183</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>99</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="7">
         <v>-135</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="10">
+        <v>96</v>
+      </c>
+      <c r="B13" s="7">
         <v>-573</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>-251</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>1318</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="7">
         <v>-860</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>2843</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="10">
+        <v>97</v>
+      </c>
+      <c r="B14" s="7">
         <v>-159</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="7">
         <v>-17</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="8">
         <v>96</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="7">
         <v>-16</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="7">
         <v>-566</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="3">
+        <v>98</v>
+      </c>
+      <c r="B15" s="2">
         <v>4558</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>-796</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="7">
         <v>-707</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>585</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="7">
         <v>-592</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="5">
+      <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="4">
         <v>7041</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>7627</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>10471</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>9844</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>12625</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="A17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="12">
         <v>3442</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="13">
         <v>-1240</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <v>366</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>690</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="12">
         <v>1325</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="9">
+        <v>101</v>
+      </c>
+      <c r="B18" s="6">
         <v>-1750</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>-1548</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>-2054</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>-1177</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>-1367</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="11">
+        <v>102</v>
+      </c>
+      <c r="B19" s="8">
         <v>108</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>248</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="8">
         <v>978</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>189</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="9">
+        <v>103</v>
+      </c>
+      <c r="B20" s="6">
         <v>-3809</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>-1263</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>-5542</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>-1052</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>-4766</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="3">
+        <v>104</v>
+      </c>
+      <c r="B21" s="2">
         <v>3821</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1362</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="8">
         <v>429</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>189</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>2180</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+        <v>105</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="10">
+        <v>106</v>
+      </c>
+      <c r="B23" s="7">
         <v>-602</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>7188</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>2269</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>252</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>1029</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="10">
+        <v>107</v>
+      </c>
+      <c r="B24" s="7">
         <v>-80</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>-60</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>-56</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>122</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="A25" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="9">
         <v>-2312</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>5927</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>-3976</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="9">
         <v>-1477</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="9">
         <v>-2765</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="3">
+        <v>109</v>
+      </c>
+      <c r="B26" s="2">
         <v>29926</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>27605</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>23009</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>26934</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>13094</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B27" s="9">
+        <v>110</v>
+      </c>
+      <c r="B27" s="6">
         <v>-28871</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>-30600</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="6">
         <v>-24850</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="6">
         <v>-28796</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="6">
         <v>-12866</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="3">
+        <v>111</v>
+      </c>
+      <c r="B28" s="2">
         <v>1595</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1476</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>1012</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="8">
         <v>647</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="9">
+        <v>112</v>
+      </c>
+      <c r="B29" s="6">
         <v>-3682</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>-1912</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="6">
         <v>-1103</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="7">
         <v>-118</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="7">
         <v>-111</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="9">
+        <v>113</v>
+      </c>
+      <c r="B30" s="6">
         <v>-6320</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>-6644</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>-6845</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>-7047</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>-7252</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="9">
+        <v>114</v>
+      </c>
+      <c r="B31" s="6">
         <v>-6320</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>-6644</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="6">
         <v>-6845</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>-7047</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="6">
         <v>-7252</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" s="10">
+        <v>115</v>
+      </c>
+      <c r="B32" s="7">
         <v>-95</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="7">
         <v>-272</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="7">
         <v>-227</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="8">
         <v>310</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="7">
         <v>-353</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="A33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="9">
         <v>-7447</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="9">
         <v>-10347</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="9">
         <v>-9004</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="9">
         <v>-8070</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="9">
         <v>-6786</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="11">
+        <v>117</v>
+      </c>
+      <c r="B34" s="8">
         <v>241</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="7">
         <v>-262</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="7">
         <v>-72</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="8">
         <v>76</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="7">
         <v>-159</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="A35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="9">
         <v>-2477</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>2945</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="9">
         <v>-2581</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E35" s="14">
         <v>373</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>2915</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>60</v>
+      <c r="A36" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="A37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="4">
         <v>5291</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>6079</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>8417</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <v>8667</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>11258</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>184</v>
+      <c r="A38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="2">
+        <v>8850</v>
+      </c>
+      <c r="C38" s="2">
+        <v>6373</v>
+      </c>
+      <c r="D38" s="2">
+        <v>9318</v>
+      </c>
+      <c r="E38" s="2">
+        <v>6737</v>
+      </c>
+      <c r="F38" s="2">
+        <v>7110</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>190</v>
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="2">
+        <v>6373</v>
+      </c>
+      <c r="C39" s="2">
+        <v>9318</v>
+      </c>
+      <c r="D39" s="2">
+        <v>6737</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7110</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10025</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B40" s="3">
-        <v>8850</v>
-      </c>
-      <c r="C40" s="3">
-        <v>6373</v>
-      </c>
-      <c r="D40" s="3">
-        <v>9318</v>
-      </c>
-      <c r="E40" s="3">
-        <v>6737</v>
-      </c>
-      <c r="F40" s="3">
-        <v>7110</v>
+        <v>122</v>
+      </c>
+      <c r="B40" s="8">
+        <v>803</v>
+      </c>
+      <c r="C40" s="8">
+        <v>903</v>
+      </c>
+      <c r="D40" s="8">
+        <v>921</v>
+      </c>
+      <c r="E40" s="8">
+        <v>935</v>
+      </c>
+      <c r="F40" s="8">
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B41" s="3">
-        <v>6373</v>
-      </c>
-      <c r="C41" s="3">
-        <v>9318</v>
-      </c>
-      <c r="D41" s="3">
-        <v>6737</v>
-      </c>
-      <c r="E41" s="3">
-        <v>7110</v>
-      </c>
-      <c r="F41" s="3">
-        <v>10025</v>
+        <v>123</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2120</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2126</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1268</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2168</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B42" s="11">
-        <v>803</v>
-      </c>
-      <c r="C42" s="11">
-        <v>903</v>
-      </c>
-      <c r="D42" s="11">
-        <v>921</v>
-      </c>
-      <c r="E42" s="11">
-        <v>935</v>
-      </c>
-      <c r="F42" s="11">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1950</v>
-      </c>
-      <c r="C43" s="3">
-        <v>2120</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2126</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1268</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="11">
+        <v>124</v>
+      </c>
+      <c r="B42" s="8">
         <v>1.24</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C42" s="8">
         <v>1.43</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D42" s="8">
         <v>1.97</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E42" s="8">
         <v>2.02</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F42" s="8">
         <v>2.61</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" display="https://app.tikr.com/account/subs?ref=imwc4z" xr:uid="{9B2CF49B-8C10-0D4C-8CD7-FC8506B65C74}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>